--- a/01 StringDist/Data.xlsx
+++ b/01 StringDist/Data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\PSSA\01 StringDist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B70BE1-154D-4C05-A319-10A3F89ACAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205E093-01B5-4ED7-8B54-5FA71DB9F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3375" windowWidth="16050" windowHeight="7995" activeTab="1" xr2:uid="{71FD1D51-490D-4A86-A719-EE9574388750}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{71FD1D51-490D-4A86-A719-EE9574388750}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение метрик" sheetId="1" r:id="rId1"/>
     <sheet name="Матрица корреляции" sheetId="2" r:id="rId2"/>
+    <sheet name="Производительность метрик" sheetId="3" r:id="rId3"/>
+    <sheet name="Анализ роста времени выполнения" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
   <si>
     <t>pair</t>
   </si>
@@ -295,19 +297,135 @@
   </si>
   <si>
     <t>0.544</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Cos2</t>
+  </si>
+  <si>
+    <t>Cos3</t>
+  </si>
+  <si>
+    <t>Qgr2</t>
+  </si>
+  <si>
+    <t>Qgr3</t>
+  </si>
+  <si>
+    <t>Jaro</t>
+  </si>
+  <si>
+    <t>J-Wink</t>
+  </si>
+  <si>
+    <t>LCS</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Сложность</t>
+  </si>
+  <si>
+    <t>DamerauL</t>
+  </si>
+  <si>
+    <t>Levenshtein</t>
+  </si>
+  <si>
+    <t>Hamming</t>
+  </si>
+  <si>
+    <t>Jaccard2</t>
+  </si>
+  <si>
+    <t>Jaccard3</t>
+  </si>
+  <si>
+    <t>Qgram2</t>
+  </si>
+  <si>
+    <t>Qgram3</t>
+  </si>
+  <si>
+    <t>JWinkler</t>
+  </si>
+  <si>
+    <t>O(n^2.03)</t>
+  </si>
+  <si>
+    <t>O(n^2.12)</t>
+  </si>
+  <si>
+    <t>O(n^-0.02)</t>
+  </si>
+  <si>
+    <t>O(n^0.73)</t>
+  </si>
+  <si>
+    <t>O(n^0.76)</t>
+  </si>
+  <si>
+    <t>O(n^0.74)</t>
+  </si>
+  <si>
+    <t>O(n^0.75)</t>
+  </si>
+  <si>
+    <t>O(n^0.7)</t>
+  </si>
+  <si>
+    <t>O(n^0.84)</t>
+  </si>
+  <si>
+    <t>O(n^0.79)</t>
+  </si>
+  <si>
+    <t>O(n^2.04)</t>
+  </si>
+  <si>
+    <t>Time (8), мс</t>
+  </si>
+  <si>
+    <t>Time (1024), мс</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -346,11 +464,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1166,7 +1286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18210159-F7D4-40FE-A217-137F8F687D63}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1718,4 +1838,889 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390A3297-87D6-4AD6-B56A-13E45C38DD78}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>128</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>256</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2.74</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>512</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.48</v>
+      </c>
+      <c r="C5" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1024</v>
+      </c>
+      <c r="B6" s="2">
+        <v>22.27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>51.74</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.87</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="M6" s="2">
+        <v>22.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2048</v>
+      </c>
+      <c r="B7" s="2">
+        <v>95.7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>214.94</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.49</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.11</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.47</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.46</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>95.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4096</v>
+      </c>
+      <c r="B8" s="2">
+        <v>476.28</v>
+      </c>
+      <c r="C8" s="2">
+        <v>902.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.63</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4.58</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.55</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.53</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8.93</v>
+      </c>
+      <c r="L8" s="2">
+        <v>8.94</v>
+      </c>
+      <c r="M8" s="2">
+        <v>487.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>ROUND(LOG(B3/B2,2),2)</f>
+        <v>1.85</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:M11" si="0">ROUND(LOG(C3/C2,2),2)</f>
+        <v>1.29</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>ROUND(LOG(B4/B3,2),2)</f>
+        <v>0.94</v>
+      </c>
+      <c r="C12">
+        <f>ROUND(LOG(C4/C3,2),2)</f>
+        <v>1.95</v>
+      </c>
+      <c r="D12">
+        <f>ROUND(LOG(D4/D3,2),2)</f>
+        <v>0.11</v>
+      </c>
+      <c r="E12">
+        <f>ROUND(LOG(E4/E3,2),2)</f>
+        <v>0.49</v>
+      </c>
+      <c r="F12">
+        <f>ROUND(LOG(F4/F3,2),2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G12">
+        <f>ROUND(LOG(G4/G3,2),2)</f>
+        <v>0.45</v>
+      </c>
+      <c r="H12">
+        <f>ROUND(LOG(H4/H3,2),2)</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I12">
+        <f>ROUND(LOG(I4/I3,2),2)</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J12">
+        <f>ROUND(LOG(J4/J3,2),2)</f>
+        <v>0.54</v>
+      </c>
+      <c r="K12">
+        <f>ROUND(LOG(K4/K3,2),2)</f>
+        <v>0.34</v>
+      </c>
+      <c r="L12">
+        <f>ROUND(LOG(L4/L3,2),2)</f>
+        <v>0.17</v>
+      </c>
+      <c r="M12">
+        <f>ROUND(LOG(M4/M3,2),2)</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>ROUND(LOG(B5/B4,2),2)</f>
+        <v>1.85</v>
+      </c>
+      <c r="C13">
+        <f>ROUND(LOG(C5/C4,2),2)</f>
+        <v>2.04</v>
+      </c>
+      <c r="D13">
+        <f>ROUND(LOG(D5/D4,2),2)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>ROUND(LOG(E5/E4,2),2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="F13">
+        <f>ROUND(LOG(F5/F4,2),2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="G13">
+        <f>ROUND(LOG(G5/G4,2),2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="H13">
+        <f>ROUND(LOG(H5/H4,2),2)</f>
+        <v>0.71</v>
+      </c>
+      <c r="I13">
+        <f>ROUND(LOG(I5/I4,2),2)</f>
+        <v>0.63</v>
+      </c>
+      <c r="J13">
+        <f>ROUND(LOG(J5/J4,2),2)</f>
+        <v>0.73</v>
+      </c>
+      <c r="K13">
+        <f>ROUND(LOG(K5/K4,2),2)</f>
+        <v>0.66</v>
+      </c>
+      <c r="L13">
+        <f>ROUND(LOG(L5/L4,2),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="M13">
+        <f>ROUND(LOG(M5/M4,2),2)</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>ROUND(LOG(B6/B5,2),2)</f>
+        <v>3.17</v>
+      </c>
+      <c r="C14">
+        <f>ROUND(LOG(C6/C5,2),2)</f>
+        <v>2.19</v>
+      </c>
+      <c r="D14">
+        <f>ROUND(LOG(D6/D5,2),2)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E14">
+        <f>ROUND(LOG(E6/E5,2),2)</f>
+        <v>0.83</v>
+      </c>
+      <c r="F14">
+        <f>ROUND(LOG(F6/F5,2),2)</f>
+        <v>0.95</v>
+      </c>
+      <c r="G14">
+        <f>ROUND(LOG(G6/G5,2),2)</f>
+        <v>0.81</v>
+      </c>
+      <c r="H14">
+        <f>ROUND(LOG(H6/H5,2),2)</f>
+        <v>0.93</v>
+      </c>
+      <c r="I14">
+        <f>ROUND(LOG(I6/I5,2),2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="J14">
+        <f>ROUND(LOG(J6/J5,2),2)</f>
+        <v>0.96</v>
+      </c>
+      <c r="K14">
+        <f>ROUND(LOG(K6/K5,2),2)</f>
+        <v>1.3</v>
+      </c>
+      <c r="L14">
+        <f>ROUND(LOG(L6/L5,2),2)</f>
+        <v>1.26</v>
+      </c>
+      <c r="M14">
+        <f>ROUND(LOG(M6/M5,2),2)</f>
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>ROUND(LOG(B7/B6,2),2)</f>
+        <v>2.1</v>
+      </c>
+      <c r="C15">
+        <f>ROUND(LOG(C7/C6,2),2)</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D15">
+        <f>ROUND(LOG(D7/D6,2),2)</f>
+        <v>0.09</v>
+      </c>
+      <c r="E15">
+        <f>ROUND(LOG(E7/E6,2),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="F15">
+        <f>ROUND(LOG(F7/F6,2),2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="G15">
+        <f>ROUND(LOG(G7/G6,2),2)</f>
+        <v>0.77</v>
+      </c>
+      <c r="H15">
+        <f>ROUND(LOG(H7/H6,2),2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="I15">
+        <f>ROUND(LOG(I7/I6,2),2)</f>
+        <v>0.78</v>
+      </c>
+      <c r="J15">
+        <f>ROUND(LOG(J7/J6,2),2)</f>
+        <v>1.02</v>
+      </c>
+      <c r="K15">
+        <f>ROUND(LOG(K7/K6,2),2)</f>
+        <v>1.7</v>
+      </c>
+      <c r="L15">
+        <f>ROUND(LOG(L7/L6,2),2)</f>
+        <v>1.7</v>
+      </c>
+      <c r="M15">
+        <f>ROUND(LOG(M7/M6,2),2)</f>
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>ROUND(LOG(B8/B7,2),2)</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C16">
+        <f>ROUND(LOG(C8/C7,2),2)</f>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D16">
+        <f>ROUND(LOG(D8/D7,2),2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E16">
+        <f>ROUND(LOG(E8/E7,2),2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="F16">
+        <f>ROUND(LOG(F8/F7,2),2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G16">
+        <f>ROUND(LOG(G8/G7,2),2)</f>
+        <v>0.82</v>
+      </c>
+      <c r="H16">
+        <f>ROUND(LOG(H8/H7,2),2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I16">
+        <f>ROUND(LOG(I8/I7,2),2)</f>
+        <v>0.84</v>
+      </c>
+      <c r="J16">
+        <f>ROUND(LOG(J8/J7,2),2)</f>
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K16">
+        <f>ROUND(LOG(K8/K7,2),2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="L16">
+        <f>ROUND(LOG(L8/L7,2),2)</f>
+        <v>1.9</v>
+      </c>
+      <c r="M16">
+        <f>ROUND(LOG(M8/M7,2),2)</f>
+        <v>2.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F7B073-2640-4F8C-9C6A-B8BEDF311F4C}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8.84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23.49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01 StringDist/Data.xlsx
+++ b/01 StringDist/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\PSSA\01 StringDist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205E093-01B5-4ED7-8B54-5FA71DB9F8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49EB314-E666-4BE4-8F97-8FF2D7AB7392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{71FD1D51-490D-4A86-A719-EE9574388750}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{71FD1D51-490D-4A86-A719-EE9574388750}"/>
   </bookViews>
   <sheets>
     <sheet name="Сравнение метрик" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>pair</t>
   </si>
@@ -368,43 +368,10 @@
     <t>JWinkler</t>
   </si>
   <si>
-    <t>O(n^2.03)</t>
-  </si>
-  <si>
-    <t>O(n^2.12)</t>
-  </si>
-  <si>
-    <t>O(n^-0.02)</t>
-  </si>
-  <si>
-    <t>O(n^0.73)</t>
-  </si>
-  <si>
-    <t>O(n^0.76)</t>
-  </si>
-  <si>
-    <t>O(n^0.74)</t>
-  </si>
-  <si>
-    <t>O(n^0.75)</t>
-  </si>
-  <si>
-    <t>O(n^0.7)</t>
-  </si>
-  <si>
-    <t>O(n^0.84)</t>
-  </si>
-  <si>
-    <t>O(n^0.79)</t>
-  </si>
-  <si>
-    <t>O(n^2.04)</t>
-  </si>
-  <si>
-    <t>Time (8), мс</t>
-  </si>
-  <si>
-    <t>Time (1024), мс</t>
+    <t>Time (64), мс</t>
+  </si>
+  <si>
+    <t>Time (4096), мс</t>
   </si>
 </sst>
 </file>
@@ -429,12 +396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -464,13 +437,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1842,10 +1816,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{390A3297-87D6-4AD6-B56A-13E45C38DD78}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,303 +2191,353 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="B11" s="2">
         <f>ROUND(LOG(B3/B2,2),2)</f>
         <v>1.85</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f t="shared" ref="C11:M11" si="0">ROUND(LOG(C3/C2,2),2)</f>
         <v>1.29</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="2">
         <f>ROUND(LOG(B4/B3,2),2)</f>
         <v>0.94</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f>ROUND(LOG(C4/C3,2),2)</f>
         <v>1.95</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f>ROUND(LOG(D4/D3,2),2)</f>
         <v>0.11</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f>ROUND(LOG(E4/E3,2),2)</f>
         <v>0.49</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f>ROUND(LOG(F4/F3,2),2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f>ROUND(LOG(G4/G3,2),2)</f>
         <v>0.45</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>ROUND(LOG(H4/H3,2),2)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>ROUND(LOG(I4/I3,2),2)</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f>ROUND(LOG(J4/J3,2),2)</f>
         <v>0.54</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f>ROUND(LOG(K4/K3,2),2)</f>
         <v>0.34</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f>ROUND(LOG(L4/L3,2),2)</f>
         <v>0.17</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f>ROUND(LOG(M4/M3,2),2)</f>
         <v>1.17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="2">
         <f>ROUND(LOG(B5/B4,2),2)</f>
         <v>1.85</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f>ROUND(LOG(C5/C4,2),2)</f>
         <v>2.04</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f>ROUND(LOG(D5/D4,2),2)</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f>ROUND(LOG(E5/E4,2),2)</f>
         <v>0.66</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>ROUND(LOG(F5/F4,2),2)</f>
         <v>0.71</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f>ROUND(LOG(G5/G4,2),2)</f>
         <v>0.71</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>ROUND(LOG(H5/H4,2),2)</f>
         <v>0.71</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>ROUND(LOG(I5/I4,2),2)</f>
         <v>0.63</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f>ROUND(LOG(J5/J4,2),2)</f>
         <v>0.73</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f>ROUND(LOG(K5/K4,2),2)</f>
         <v>0.66</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f>ROUND(LOG(L5/L4,2),2)</f>
         <v>0.78</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <f>ROUND(LOG(M5/M4,2),2)</f>
         <v>1.9</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <f>ROUND(LOG(B6/B5,2),2)</f>
         <v>3.17</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>ROUND(LOG(C6/C5,2),2)</f>
         <v>2.19</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f>ROUND(LOG(D6/D5,2),2)</f>
         <v>0.1</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f>ROUND(LOG(E6/E5,2),2)</f>
         <v>0.83</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>ROUND(LOG(F6/F5,2),2)</f>
         <v>0.95</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>ROUND(LOG(G6/G5,2),2)</f>
         <v>0.81</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f>ROUND(LOG(H6/H5,2),2)</f>
         <v>0.93</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>ROUND(LOG(I6/I5,2),2)</f>
         <v>0.82</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f>ROUND(LOG(J6/J5,2),2)</f>
         <v>0.96</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f>ROUND(LOG(K6/K5,2),2)</f>
         <v>1.3</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f>ROUND(LOG(L6/L5,2),2)</f>
         <v>1.26</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <f>ROUND(LOG(M6/M5,2),2)</f>
         <v>3.49</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="2">
         <f>ROUND(LOG(B7/B6,2),2)</f>
         <v>2.1</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>ROUND(LOG(C7/C6,2),2)</f>
         <v>2.0499999999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f>ROUND(LOG(D7/D6,2),2)</f>
         <v>0.09</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f>ROUND(LOG(E7/E6,2),2)</f>
         <v>0.78</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>ROUND(LOG(F7/F6,2),2)</f>
         <v>1.02</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f>ROUND(LOG(G7/G6,2),2)</f>
         <v>0.77</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f>ROUND(LOG(H7/H6,2),2)</f>
         <v>1.02</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>ROUND(LOG(I7/I6,2),2)</f>
         <v>0.78</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f>ROUND(LOG(J7/J6,2),2)</f>
         <v>1.02</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f>ROUND(LOG(K7/K6,2),2)</f>
         <v>1.7</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f>ROUND(LOG(L7/L6,2),2)</f>
         <v>1.7</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <f>ROUND(LOG(M7/M6,2),2)</f>
         <v>2.09</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="2">
         <f>ROUND(LOG(B8/B7,2),2)</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f>ROUND(LOG(C8/C7,2),2)</f>
         <v>2.0699999999999998</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f>ROUND(LOG(D8/D7,2),2)</f>
         <v>0.25</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f>ROUND(LOG(E8/E7,2),2)</f>
         <v>0.82</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f>ROUND(LOG(F8/F7,2),2)</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f>ROUND(LOG(G8/G7,2),2)</f>
         <v>0.82</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f>ROUND(LOG(H8/H7,2),2)</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>ROUND(LOG(I8/I7,2),2)</f>
         <v>0.84</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f>ROUND(LOG(J8/J7,2),2)</f>
         <v>1.1200000000000001</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f>ROUND(LOG(K8/K7,2),2)</f>
         <v>1.9</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f>ROUND(LOG(L8/L7,2),2)</f>
         <v>1.9</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <f>ROUND(LOG(M8/M7,2),2)</f>
         <v>2.35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <f>AVERAGE(B12:B16)</f>
+        <v>2.0760000000000001</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:M17" si="1">AVERAGE(C12:C16)</f>
+        <v>2.06</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87600000000000011</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="H17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.87200000000000011</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.874</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000002</v>
+      </c>
+      <c r="L17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1620000000000001</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -2523,10 +2547,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F7B073-2640-4F8C-9C6A-B8BEDF311F4C}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,186 +2561,247 @@
     <col min="4" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="2">
-        <v>0.04</v>
+        <f>'Производительность метрик'!B2</f>
+        <v>0.1</v>
       </c>
       <c r="C2" s="2">
-        <v>8.84</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>476.28</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>"O(n^"&amp;ROUND(F2,2)&amp;")"</f>
+        <v>O(n^2,01)</v>
+      </c>
+      <c r="F2">
+        <f>LOG(C2/B2,4296/64)</f>
+        <v>2.0131884364853367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B3" s="2">
-        <v>0.05</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>23.49</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>902.2</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" ref="D3:D13" si="0">"O(n^"&amp;ROUND(F3,2)&amp;")"</f>
+        <v>O(n^1,91)</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F13" si="1">LOG(C3/B3,4296/64)</f>
+        <v>1.9119463817898659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="2">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="C4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.19</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,09)</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>9.0213840450970792E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B5" s="2">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.63</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,6)</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0.60087902366472112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B6" s="2">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="C6" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.58</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,73)</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.73274820097635351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B7" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,61)</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.60975035643738951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="2">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="C8" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.55</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,73)</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.73118593381538677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B9" s="2">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="C9" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.61</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,6)</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.59906432683152688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="2">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="C10" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.53</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,73)</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.73013868925499836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B11" s="2">
-        <v>0.05</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C11" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.93</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,99)</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.98786957908993978</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="2">
-        <v>0.06</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8.94</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^0,99)</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.98813563858134545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B13" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="2">
-        <v>7.35</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>119</v>
+        <v>487.09</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>O(n^1,85)</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.8537458668245395</v>
       </c>
     </row>
   </sheetData>
